--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-674205.5457886144</v>
+        <v>-677101.2027168528</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>6.05642108929943</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -744,55 +744,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="V3" t="n">
         <v>6.876045741711437</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="C4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.26115480377223</v>
+        <v>48.67402515116256</v>
       </c>
       <c r="G5" t="n">
         <v>55.26115480377223</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>48.67402515116256</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -984,17 +984,17 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S6" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>48.67402515116256</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.515713233384492</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.911234850750057</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>34.93619783623066</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>134.1098420688261</v>
+        <v>119.0783957675031</v>
       </c>
       <c r="G8" t="n">
-        <v>94.23845081623433</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="H8" t="n">
-        <v>134.1098420688261</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>133.1553951955495</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.88549807798773</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>134.1098420688261</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>134.1098420688261</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>134.1098420688261</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>64.37915636604764</v>
       </c>
       <c r="H9" t="n">
-        <v>84.59151858188301</v>
+        <v>101.8717017063785</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>52.45050257828778</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>33.53243031233899</v>
+        <v>33.53243031233865</v>
       </c>
       <c r="S9" t="n">
-        <v>134.1098420688261</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>128.3958927240392</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>29.75474063830668</v>
+        <v>29.75474063830636</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.8295896017998</v>
+        <v>10.82958960179943</v>
       </c>
       <c r="R10" t="n">
-        <v>134.1098420688261</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>83.25356799890258</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>134.1098420688261</v>
+        <v>77.53961865411827</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>134.1098420688285</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>130.4667823470884</v>
+        <v>169.404951072344</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>153.0719106746579</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>78.87863167794978</v>
       </c>
       <c r="G14" t="n">
-        <v>410.5878658187009</v>
+        <v>410.5878658187008</v>
       </c>
       <c r="H14" t="n">
         <v>291.1886223546605</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4564987129907</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9684631721218</v>
+        <v>250.9684631721217</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X14" t="n">
-        <v>276.1891411673284</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.82083840601</v>
       </c>
       <c r="H15" t="n">
-        <v>87.87167834458528</v>
+        <v>87.87167834458529</v>
       </c>
       <c r="I15" t="n">
-        <v>12.66699296480346</v>
+        <v>12.66699296480353</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8760502306935</v>
+        <v>165.8760502306934</v>
       </c>
       <c r="H16" t="n">
-        <v>143.423529898763</v>
+        <v>122.8462756178229</v>
       </c>
       <c r="I16" t="n">
-        <v>91.84878806682684</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.19848714147004</v>
+        <v>82.19848714147</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1591513285542</v>
+        <v>187.1591513285541</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9090740641935</v>
       </c>
       <c r="U16" t="n">
-        <v>170.800870966694</v>
+        <v>286.2036695858854</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112681</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947577</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188965</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424843</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247504</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T20" t="n">
-        <v>168.992602654574</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
         <v>323.0728392684691</v>
@@ -2327,13 +2327,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295185</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116144</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.86620090218895</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659986</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453023</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221587</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424814</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401422</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112668</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187938</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684692</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.320167720048</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894977</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295185</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545725</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262553</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H27" t="n">
-        <v>85.68348164116144</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.86620090218895</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464141</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659963</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943554</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707175</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221589</v>
+        <v>42.04747230221558</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424835</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401422</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612653</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716142</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843772</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368234</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.974450999881</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295188</v>
+        <v>60.32014642295189</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545725</v>
@@ -2959,16 +2959,16 @@
         <v>114.8237602943554</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707134</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453026</v>
+        <v>54.52629139452779</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221592</v>
+        <v>42.04747230221591</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424835</v>
@@ -3038,13 +3038,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C34" t="n">
         <v>135.636618746414</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707174</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453025</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221333</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112669</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C35" t="n">
         <v>333.6626894187938</v>
@@ -3272,16 +3272,16 @@
         <v>323.0728392684692</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200481</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894977</v>
       </c>
       <c r="G35" t="n">
-        <v>378.55420402475</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947561</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295194</v>
+        <v>60.32014642295189</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545725</v>
@@ -3323,16 +3323,16 @@
         <v>219.324384064569</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179212</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651993</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X35" t="n">
         <v>338.1208983262553</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038399</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="36">
@@ -3424,7 +3424,7 @@
         <v>148.2217778297235</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464141</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659986</v>
@@ -3433,16 +3433,16 @@
         <v>114.8237602943554</v>
       </c>
       <c r="F37" t="n">
-        <v>113.810845670713</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510284</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442999</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453031</v>
+        <v>54.52629139453026</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221596</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424835</v>
@@ -3478,16 +3478,16 @@
         <v>186.4872700401422</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612654</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716143</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843773</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368234</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
         <v>186.974450999881</v>
@@ -3512,10 +3512,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3560,16 +3560,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3661,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D40" t="n">
         <v>117.0052706659985</v>
@@ -3673,13 +3673,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510269</v>
       </c>
       <c r="H40" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453016</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424834</v>
@@ -3749,10 +3749,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3797,16 +3797,16 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3898,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659985</v>
@@ -3910,13 +3910,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H43" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424834</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E46" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T46" t="n">
         <v>186.4872700401421</v>
@@ -4198,7 +4198,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998809</v>
@@ -4310,19 +4310,19 @@
         <v>21.38658590694733</v>
       </c>
       <c r="D2" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F2" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="E2" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I2" t="n">
         <v>0.5500836593369149</v>
@@ -4331,19 +4331,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>4.923777793205053</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>4.923777793205053</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
-        <v>7.082327113962777</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4355,10 +4355,10 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T2" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U2" t="n">
         <v>21.38658590694733</v>
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D3" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E3" t="n">
         <v>7.495584408540386</v>
@@ -4398,10 +4398,10 @@
         <v>7.495584408540386</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I3" t="n">
         <v>0.5500836593369149</v>
@@ -4422,7 +4422,7 @@
         <v>20.97193951221988</v>
       </c>
       <c r="O3" t="n">
-        <v>26.19257187820077</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P3" t="n">
         <v>27.50418296684575</v>
@@ -4431,28 +4431,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V3" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W3" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X3" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4465,61 +4465,61 @@
         <v>14.44108515774386</v>
       </c>
       <c r="C4" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="I4" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L4" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="O4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P4" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V4" t="n">
         <v>20.55868221764227</v>
@@ -4528,10 +4528,10 @@
         <v>20.55868221764227</v>
       </c>
       <c r="X4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>171.8789372442176</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="C5" t="n">
+        <v>165.2252709284503</v>
+      </c>
+      <c r="D5" t="n">
+        <v>165.2252709284503</v>
+      </c>
+      <c r="E5" t="n">
+        <v>165.2252709284503</v>
+      </c>
+      <c r="F5" t="n">
         <v>116.059588957579</v>
       </c>
-      <c r="D5" t="n">
-        <v>116.059588957579</v>
-      </c>
-      <c r="E5" t="n">
-        <v>116.059588957579</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>60.2402406709404</v>
       </c>
-      <c r="G5" t="n">
-        <v>4.420892384301778</v>
-      </c>
       <c r="H5" t="n">
-        <v>4.420892384301778</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="I5" t="n">
         <v>4.420892384301778</v>
@@ -4568,22 +4568,22 @@
         <v>4.420892384301778</v>
       </c>
       <c r="K5" t="n">
-        <v>18.59452465058657</v>
+        <v>8.163703509554852</v>
       </c>
       <c r="L5" t="n">
-        <v>73.30306790632108</v>
+        <v>24.00601094946761</v>
       </c>
       <c r="M5" t="n">
-        <v>128.0116111620556</v>
+        <v>73.30306790632105</v>
       </c>
       <c r="N5" t="n">
-        <v>182.7201544177901</v>
+        <v>128.0116111620555</v>
       </c>
       <c r="O5" t="n">
-        <v>221.0446192150889</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="P5" t="n">
-        <v>221.0446192150889</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="Q5" t="n">
         <v>221.0446192150889</v>
@@ -4592,25 +4592,25 @@
         <v>221.0446192150889</v>
       </c>
       <c r="S5" t="n">
-        <v>171.8789372442176</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="T5" t="n">
-        <v>171.8789372442176</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="U5" t="n">
-        <v>171.8789372442176</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="V5" t="n">
-        <v>171.8789372442176</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="W5" t="n">
-        <v>171.8789372442176</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="X5" t="n">
-        <v>171.8789372442176</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="Y5" t="n">
-        <v>171.8789372442176</v>
+        <v>165.2252709284503</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.2402406709404</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="C6" t="n">
-        <v>60.2402406709404</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="D6" t="n">
-        <v>60.2402406709404</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="E6" t="n">
-        <v>60.2402406709404</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="F6" t="n">
-        <v>60.2402406709404</v>
+        <v>116.059588957579</v>
       </c>
       <c r="G6" t="n">
         <v>60.2402406709404</v>
       </c>
       <c r="H6" t="n">
-        <v>4.420892384301778</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="I6" t="n">
         <v>4.420892384301778</v>
@@ -4656,10 +4656,10 @@
         <v>105.4519767951905</v>
       </c>
       <c r="N6" t="n">
-        <v>160.160520050925</v>
+        <v>137.5961796025268</v>
       </c>
       <c r="O6" t="n">
-        <v>214.8690633066595</v>
+        <v>192.3047228582613</v>
       </c>
       <c r="P6" t="n">
         <v>221.0446192150889</v>
@@ -4668,28 +4668,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R6" t="n">
-        <v>221.0446192150889</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2252709284503</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="T6" t="n">
-        <v>116.059588957579</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="U6" t="n">
-        <v>116.059588957579</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="V6" t="n">
-        <v>116.059588957579</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="W6" t="n">
-        <v>116.059588957579</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="X6" t="n">
-        <v>60.2402406709404</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="Y6" t="n">
-        <v>60.2402406709404</v>
+        <v>171.8789372442176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.2543266347634</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="C7" t="n">
-        <v>159.2543266347634</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="D7" t="n">
-        <v>103.4349783481248</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="E7" t="n">
         <v>47.61563006148614</v>
@@ -4744,31 +4744,31 @@
         <v>221.0446192150889</v>
       </c>
       <c r="Q7" t="n">
-        <v>215.073674921402</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="R7" t="n">
-        <v>159.2543266347634</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="S7" t="n">
-        <v>159.2543266347634</v>
+        <v>194.5434153582287</v>
       </c>
       <c r="T7" t="n">
-        <v>159.2543266347634</v>
+        <v>138.7240670715901</v>
       </c>
       <c r="U7" t="n">
-        <v>159.2543266347634</v>
+        <v>138.7240670715901</v>
       </c>
       <c r="V7" t="n">
-        <v>159.2543266347634</v>
+        <v>82.90471878495146</v>
       </c>
       <c r="W7" t="n">
-        <v>159.2543266347634</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="X7" t="n">
-        <v>159.2543266347634</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.2543266347634</v>
+        <v>47.61563006148614</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.8481156017552</v>
+        <v>400.9748813371033</v>
       </c>
       <c r="C8" t="n">
-        <v>376.8481156017552</v>
+        <v>400.9748813371033</v>
       </c>
       <c r="D8" t="n">
-        <v>376.8481156017552</v>
+        <v>400.9748813371033</v>
       </c>
       <c r="E8" t="n">
-        <v>376.8481156017552</v>
+        <v>400.9748813371033</v>
       </c>
       <c r="F8" t="n">
-        <v>241.383628663547</v>
+        <v>280.6936734911406</v>
       </c>
       <c r="G8" t="n">
-        <v>146.1932743037143</v>
+        <v>145.22918655293</v>
       </c>
       <c r="H8" t="n">
-        <v>10.72878736550609</v>
+        <v>145.22918655293</v>
       </c>
       <c r="I8" t="n">
-        <v>10.72878736550609</v>
+        <v>10.72878736550628</v>
       </c>
       <c r="J8" t="n">
-        <v>10.72878736550609</v>
+        <v>10.72878736550628</v>
       </c>
       <c r="K8" t="n">
-        <v>45.40717204574071</v>
+        <v>45.40717204574185</v>
       </c>
       <c r="L8" t="n">
-        <v>125.3305365720455</v>
+        <v>125.3305365720482</v>
       </c>
       <c r="M8" t="n">
-        <v>245.9301166353477</v>
+        <v>245.9301166353522</v>
       </c>
       <c r="N8" t="n">
-        <v>373.0949323658863</v>
+        <v>373.0949323658926</v>
       </c>
       <c r="O8" t="n">
-        <v>479.8378006431519</v>
+        <v>479.8378006431598</v>
       </c>
       <c r="P8" t="n">
-        <v>536.4393682753046</v>
+        <v>536.4393682753139</v>
       </c>
       <c r="Q8" t="n">
-        <v>536.4393682753046</v>
+        <v>536.4393682753139</v>
       </c>
       <c r="R8" t="n">
-        <v>512.3126025399634</v>
+        <v>536.4393682753139</v>
       </c>
       <c r="S8" t="n">
-        <v>512.3126025399634</v>
+        <v>536.4393682753139</v>
       </c>
       <c r="T8" t="n">
-        <v>512.3126025399634</v>
+        <v>536.4393682753139</v>
       </c>
       <c r="U8" t="n">
-        <v>376.8481156017552</v>
+        <v>400.9748813371033</v>
       </c>
       <c r="V8" t="n">
-        <v>376.8481156017552</v>
+        <v>400.9748813371033</v>
       </c>
       <c r="W8" t="n">
-        <v>376.8481156017552</v>
+        <v>400.9748813371033</v>
       </c>
       <c r="X8" t="n">
-        <v>376.8481156017552</v>
+        <v>400.9748813371033</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.8481156017552</v>
+        <v>400.9748813371033</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>367.103739607461</v>
+        <v>231.6392526692577</v>
       </c>
       <c r="C9" t="n">
-        <v>367.103739607461</v>
+        <v>231.6392526692577</v>
       </c>
       <c r="D9" t="n">
-        <v>231.6392526692527</v>
+        <v>231.6392526692577</v>
       </c>
       <c r="E9" t="n">
-        <v>231.6392526692527</v>
+        <v>231.6392526692577</v>
       </c>
       <c r="F9" t="n">
-        <v>96.17476573104449</v>
+        <v>231.6392526692577</v>
       </c>
       <c r="G9" t="n">
-        <v>96.17476573104449</v>
+        <v>166.6098017944621</v>
       </c>
       <c r="H9" t="n">
-        <v>10.72878736550609</v>
+        <v>63.7090930001404</v>
       </c>
       <c r="I9" t="n">
-        <v>10.72878736550609</v>
+        <v>10.72878736550628</v>
       </c>
       <c r="J9" t="n">
-        <v>10.72878736550609</v>
+        <v>10.72878736550628</v>
       </c>
       <c r="K9" t="n">
-        <v>45.81266997618544</v>
+        <v>10.72878736550628</v>
       </c>
       <c r="L9" t="n">
-        <v>93.38778690175366</v>
+        <v>93.3877869017571</v>
       </c>
       <c r="M9" t="n">
-        <v>221.85142025141</v>
+        <v>221.8514202514148</v>
       </c>
       <c r="N9" t="n">
-        <v>354.6201638995478</v>
+        <v>354.6201638995549</v>
       </c>
       <c r="O9" t="n">
-        <v>466.2109725539508</v>
+        <v>466.2109725539592</v>
       </c>
       <c r="P9" t="n">
-        <v>536.4393682753046</v>
+        <v>536.4393682753139</v>
       </c>
       <c r="Q9" t="n">
-        <v>536.4393682753046</v>
+        <v>536.4393682753139</v>
       </c>
       <c r="R9" t="n">
-        <v>502.5682265456692</v>
+        <v>502.5682265456789</v>
       </c>
       <c r="S9" t="n">
-        <v>367.103739607461</v>
+        <v>502.5682265456789</v>
       </c>
       <c r="T9" t="n">
-        <v>367.103739607461</v>
+        <v>502.5682265456789</v>
       </c>
       <c r="U9" t="n">
-        <v>367.103739607461</v>
+        <v>367.1037396074683</v>
       </c>
       <c r="V9" t="n">
-        <v>367.103739607461</v>
+        <v>231.6392526692577</v>
       </c>
       <c r="W9" t="n">
-        <v>367.103739607461</v>
+        <v>231.6392526692577</v>
       </c>
       <c r="X9" t="n">
-        <v>367.103739607461</v>
+        <v>231.6392526692577</v>
       </c>
       <c r="Y9" t="n">
-        <v>367.103739607461</v>
+        <v>231.6392526692577</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.4769018729261</v>
+        <v>176.2485678777637</v>
       </c>
       <c r="C10" t="n">
-        <v>170.4769018729261</v>
+        <v>176.2485678777637</v>
       </c>
       <c r="D10" t="n">
-        <v>170.4769018729261</v>
+        <v>40.78408093955311</v>
       </c>
       <c r="E10" t="n">
-        <v>170.4769018729261</v>
+        <v>40.78408093955311</v>
       </c>
       <c r="F10" t="n">
-        <v>170.4769018729261</v>
+        <v>40.78408093955311</v>
       </c>
       <c r="G10" t="n">
-        <v>170.4769018729261</v>
+        <v>40.78408093955311</v>
       </c>
       <c r="H10" t="n">
-        <v>170.4769018729261</v>
+        <v>40.78408093955311</v>
       </c>
       <c r="I10" t="n">
-        <v>40.78408093955324</v>
+        <v>40.78408093955311</v>
       </c>
       <c r="J10" t="n">
-        <v>10.72878736550609</v>
+        <v>10.72878736550628</v>
       </c>
       <c r="K10" t="n">
-        <v>92.15840670684483</v>
+        <v>92.15840670684553</v>
       </c>
       <c r="L10" t="n">
-        <v>224.9271503549827</v>
+        <v>138.1331373308934</v>
       </c>
       <c r="M10" t="n">
-        <v>270.9018809790289</v>
+        <v>270.9018809790335</v>
       </c>
       <c r="N10" t="n">
-        <v>403.6706246271667</v>
+        <v>403.6706246271737</v>
       </c>
       <c r="O10" t="n">
-        <v>536.4393682753046</v>
+        <v>536.4393682753139</v>
       </c>
       <c r="P10" t="n">
-        <v>536.4393682753046</v>
+        <v>536.4393682753139</v>
       </c>
       <c r="Q10" t="n">
-        <v>525.5003888795472</v>
+        <v>525.5003888795569</v>
       </c>
       <c r="R10" t="n">
-        <v>390.035901941339</v>
+        <v>390.0359019413463</v>
       </c>
       <c r="S10" t="n">
-        <v>390.035901941339</v>
+        <v>390.0359019413463</v>
       </c>
       <c r="T10" t="n">
-        <v>305.9413888111344</v>
+        <v>390.0359019413463</v>
       </c>
       <c r="U10" t="n">
-        <v>305.9413888111344</v>
+        <v>390.0359019413463</v>
       </c>
       <c r="V10" t="n">
-        <v>305.9413888111344</v>
+        <v>390.0359019413463</v>
       </c>
       <c r="W10" t="n">
-        <v>305.9413888111344</v>
+        <v>390.0359019413463</v>
       </c>
       <c r="X10" t="n">
-        <v>170.4769018729261</v>
+        <v>311.7130548159743</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.4769018729261</v>
+        <v>176.2485678777637</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1749.723851760226</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="C11" t="n">
-        <v>1749.723851760226</v>
+        <v>1789.05533532109</v>
       </c>
       <c r="D11" t="n">
         <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267231</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2866.097597267231</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W11" t="n">
-        <v>2513.328941997117</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X11" t="n">
-        <v>2139.863183736037</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y11" t="n">
-        <v>1749.723851760226</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1077.295589104464</v>
+        <v>848.0708164780107</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139004</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015647</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191716</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5203,16 +5203,16 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
         <v>1849.684251935978</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1548.361223971664</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.361223971664</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.944053934704</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X13" t="n">
-        <v>1258.944053934704</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y13" t="n">
-        <v>1258.944053934704</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1921.73301657873</v>
+        <v>1976.210749920649</v>
       </c>
       <c r="C14" t="n">
-        <v>1552.770499638319</v>
+        <v>1607.248232980238</v>
       </c>
       <c r="D14" t="n">
-        <v>1194.504801031568</v>
+        <v>1248.982534373487</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.504801031568</v>
+        <v>863.1942817752431</v>
       </c>
       <c r="F14" t="n">
-        <v>783.5188962419606</v>
+        <v>783.5188962419604</v>
       </c>
       <c r="G14" t="n">
         <v>368.7836782432728</v>
       </c>
       <c r="H14" t="n">
-        <v>74.6537566729088</v>
+        <v>74.65375667290868</v>
       </c>
       <c r="I14" t="n">
-        <v>74.6537566729088</v>
+        <v>74.65375667290868</v>
       </c>
       <c r="J14" t="n">
-        <v>291.5854644202682</v>
+        <v>291.5854644202677</v>
       </c>
       <c r="K14" t="n">
-        <v>667.4483788354748</v>
+        <v>667.4483788354739</v>
       </c>
       <c r="L14" t="n">
-        <v>1170.641322097875</v>
+        <v>1170.641322097873</v>
       </c>
       <c r="M14" t="n">
-        <v>1762.209863821709</v>
+        <v>1762.209863821707</v>
       </c>
       <c r="N14" t="n">
-        <v>2367.964411395337</v>
+        <v>2367.964411395335</v>
       </c>
       <c r="O14" t="n">
-        <v>2926.625992245017</v>
+        <v>2926.625992245013</v>
       </c>
       <c r="P14" t="n">
-        <v>3368.929725548789</v>
+        <v>3368.929725548784</v>
       </c>
       <c r="Q14" t="n">
-        <v>3652.908662472308</v>
+        <v>3652.908662472303</v>
       </c>
       <c r="R14" t="n">
-        <v>3732.68783364544</v>
+        <v>3732.687833645434</v>
       </c>
       <c r="S14" t="n">
-        <v>3732.68783364544</v>
+        <v>3732.687833645434</v>
       </c>
       <c r="T14" t="n">
-        <v>3528.186319793934</v>
+        <v>3732.687833645434</v>
       </c>
       <c r="U14" t="n">
-        <v>3274.682821640276</v>
+        <v>3479.184335491776</v>
       </c>
       <c r="V14" t="n">
-        <v>2943.619934296705</v>
+        <v>3479.184335491776</v>
       </c>
       <c r="W14" t="n">
-        <v>2590.851279026591</v>
+        <v>3126.415680221663</v>
       </c>
       <c r="X14" t="n">
-        <v>2311.872348554542</v>
+        <v>2752.949921960583</v>
       </c>
       <c r="Y14" t="n">
-        <v>1921.73301657873</v>
+        <v>2362.810589984771</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.2079701167358</v>
       </c>
       <c r="H15" t="n">
-        <v>87.44869906159916</v>
+        <v>87.44869906159911</v>
       </c>
       <c r="I15" t="n">
-        <v>74.6537566729088</v>
+        <v>74.65375667290868</v>
       </c>
       <c r="J15" t="n">
-        <v>79.99995525863221</v>
+        <v>185.0389487192674</v>
       </c>
       <c r="K15" t="n">
-        <v>346.8206550854923</v>
+        <v>451.8596485461271</v>
       </c>
       <c r="L15" t="n">
-        <v>751.9165548773825</v>
+        <v>856.9555483380169</v>
       </c>
       <c r="M15" t="n">
-        <v>1244.001230967587</v>
+        <v>1349.040224428221</v>
       </c>
       <c r="N15" t="n">
-        <v>1763.518569105994</v>
+        <v>1868.557562566627</v>
       </c>
       <c r="O15" t="n">
-        <v>2216.555642353551</v>
+        <v>2025.501657596135</v>
       </c>
       <c r="P15" t="n">
-        <v>2560.824767845339</v>
+        <v>2369.770783087923</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.824767845339</v>
+        <v>2549.986379918511</v>
       </c>
       <c r="R15" t="n">
         <v>2560.824767845339</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1093.709992008893</v>
+        <v>535.2286525791147</v>
       </c>
       <c r="C16" t="n">
-        <v>924.7738090809858</v>
+        <v>366.292469651208</v>
       </c>
       <c r="D16" t="n">
-        <v>774.65716966865</v>
+        <v>366.292469651208</v>
       </c>
       <c r="E16" t="n">
-        <v>626.7440760862569</v>
+        <v>366.292469651208</v>
       </c>
       <c r="F16" t="n">
-        <v>479.8541285883466</v>
+        <v>366.292469651208</v>
       </c>
       <c r="G16" t="n">
-        <v>312.3025626987572</v>
+        <v>198.7409037616187</v>
       </c>
       <c r="H16" t="n">
-        <v>167.4303102757642</v>
+        <v>74.65375667290868</v>
       </c>
       <c r="I16" t="n">
-        <v>74.6537566729088</v>
+        <v>74.65375667290868</v>
       </c>
       <c r="J16" t="n">
-        <v>130.2584027970761</v>
+        <v>130.258402797076</v>
       </c>
       <c r="K16" t="n">
-        <v>351.4707541650114</v>
+        <v>351.4707541650112</v>
       </c>
       <c r="L16" t="n">
-        <v>690.072837771981</v>
+        <v>690.0728377719806</v>
       </c>
       <c r="M16" t="n">
-        <v>1057.47038251471</v>
+        <v>1057.470382514709</v>
       </c>
       <c r="N16" t="n">
-        <v>1421.566651239199</v>
+        <v>1421.566651239198</v>
       </c>
       <c r="O16" t="n">
-        <v>1741.852190580546</v>
+        <v>1741.852190580545</v>
       </c>
       <c r="P16" t="n">
         <v>1992.39111829489</v>
@@ -5458,28 +5458,28 @@
         <v>2082.416205238324</v>
       </c>
       <c r="R16" t="n">
-        <v>1999.387430347951</v>
+        <v>1999.38743034795</v>
       </c>
       <c r="S16" t="n">
-        <v>1810.33778254133</v>
+        <v>1810.337782541329</v>
       </c>
       <c r="T16" t="n">
-        <v>1810.33778254133</v>
+        <v>1589.217505708811</v>
       </c>
       <c r="U16" t="n">
-        <v>1637.811650251741</v>
+        <v>1300.122889965492</v>
       </c>
       <c r="V16" t="n">
-        <v>1383.127162045854</v>
+        <v>1045.438401759605</v>
       </c>
       <c r="W16" t="n">
-        <v>1093.709992008893</v>
+        <v>756.0212317226448</v>
       </c>
       <c r="X16" t="n">
-        <v>1093.709992008893</v>
+        <v>756.0212317226448</v>
       </c>
       <c r="Y16" t="n">
-        <v>1093.709992008893</v>
+        <v>535.2286525791147</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796689</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162856</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511626</v>
@@ -5513,16 +5513,16 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
         <v>2681.771598889756</v>
@@ -5552,13 +5552,13 @@
         <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="K18" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="L18" t="n">
-        <v>535.3638672866904</v>
+        <v>301.7509472448894</v>
       </c>
       <c r="M18" t="n">
-        <v>1084.28233189698</v>
+        <v>850.6694118551787</v>
       </c>
       <c r="N18" t="n">
-        <v>1662.137679823382</v>
+        <v>1428.524759781581</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>1934.929714729832</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477716</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897927</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511626</v>
@@ -5677,7 +5677,7 @@
         <v>459.5287020443614</v>
       </c>
       <c r="L19" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040894</v>
@@ -5686,16 +5686,16 @@
         <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q19" t="n">
         <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
         <v>2333.272818966196</v>
@@ -5704,16 +5704,16 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511626</v>
@@ -5753,25 +5753,25 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R20" t="n">
         <v>4249.020448755813</v>
@@ -5780,22 +5780,22 @@
         <v>4188.091007924549</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>165.6257438946542</v>
       </c>
       <c r="K21" t="n">
-        <v>216.557510983586</v>
+        <v>468.6667932445187</v>
       </c>
       <c r="L21" t="n">
-        <v>670.3561405779135</v>
+        <v>922.4654228388462</v>
       </c>
       <c r="M21" t="n">
-        <v>1219.274605188203</v>
+        <v>1471.383887449135</v>
       </c>
       <c r="N21" t="n">
-        <v>1797.129953114605</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O21" t="n">
-        <v>2303.534908062856</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511626</v>
@@ -5911,22 +5911,22 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443598</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902774</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597205</v>
@@ -5938,19 +5938,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5972,25 +5972,25 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G23" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -5999,40 +5999,40 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612706</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835861</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>216.5575109835861</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>326.5159252754095</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4343898856988</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760352</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P24" t="n">
         <v>2346.796248312508</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477726</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039809</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749446</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6172,25 +6172,25 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755814</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382062</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437417</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501806</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177178</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511628</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511628</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694439</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M27" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N27" t="n">
-        <v>1665.552851106136</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O27" t="n">
-        <v>2171.957806054386</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.644190323788</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502088</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477704</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609054</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039808</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897933</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511628</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
         <v>185.1742787042785</v>
@@ -6391,43 +6391,43 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G29" t="n">
         <v>342.800273616284</v>
@@ -6461,22 +6461,22 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N29" t="n">
         <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612705</v>
@@ -6497,7 +6497,7 @@
         <v>3795.851627400164</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382062</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437416</v>
@@ -6543,25 +6543,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448904</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2487.272558016626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.862419750207</v>
+        <v>872.8624197502086</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477685</v>
+        <v>735.8557341477701</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609013</v>
+        <v>617.6685920609029</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039767</v>
+        <v>501.6849958039783</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315364</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749446</v>
+        <v>251.2943450749422</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897908</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K31" t="n">
         <v>459.528702044361</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6634,7 +6634,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
         <v>2392.455631028688</v>
@@ -6643,10 +6643,10 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
@@ -6661,10 +6661,10 @@
         <v>1407.50452264559</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.44446907304</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254978</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511626</v>
@@ -6716,7 +6716,7 @@
         <v>3311.067850233289</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.90714476723</v>
@@ -6792,10 +6792,10 @@
         <v>2100.17100246447</v>
       </c>
       <c r="O33" t="n">
-        <v>2555.644190323788</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="P33" t="n">
-        <v>2555.644190323788</v>
+        <v>2487.272558016626</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502107</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477729</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609057</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315392</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352545</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T34" t="n">
         <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254982</v>
@@ -6920,10 +6920,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
         <v>342.800273616284</v>
@@ -6938,31 +6938,31 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R35" t="n">
         <v>4249.020448755813</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T35" t="n">
         <v>4017.391409283566</v>
@@ -6974,7 +6974,7 @@
         <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
         <v>2834.342818501804</v>
@@ -7014,28 +7014,28 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J36" t="n">
-        <v>93.82973291098779</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>396.8707822608523</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6694118551798</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2487.272558016626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.862419750207</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477685</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609012</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039766</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315392</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897933</v>
@@ -7099,7 +7099,7 @@
         <v>459.528702044361</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7114,31 +7114,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597208</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352545</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.44446907304</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254978</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7166,43 +7166,43 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
         <v>3795.851627400163</v>
@@ -7217,7 +7217,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>93.82973291098779</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>396.8707822608523</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6694118551798</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281988</v>
+        <v>2487.272558016626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D40" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039792</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315374</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749445</v>
@@ -7327,55 +7327,55 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K40" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902791</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K41" t="n">
         <v>766.6831886951452</v>
@@ -7418,10 +7418,10 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7442,19 +7442,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L42" t="n">
-        <v>535.3638672866904</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O42" t="n">
         <v>2168.542634771632</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897932</v>
@@ -7570,49 +7570,49 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313938</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="44">
@@ -7631,55 +7631,55 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076826</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
         <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
         <v>3496.71823738206</v>
@@ -7719,25 +7719,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177173</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538068</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.17100246447</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
         <v>2168.542634771632</v>
@@ -7801,22 +7801,22 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313936</v>
@@ -7825,13 +7825,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
         <v>2144.901839127669</v>
@@ -7979,22 +7979,22 @@
         <v>68.65190234826171</v>
       </c>
       <c r="K2" t="n">
-        <v>56.05824978144793</v>
+        <v>58.51642266066631</v>
       </c>
       <c r="L2" t="n">
-        <v>26.78994699523963</v>
+        <v>33.66599273695107</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.41787286249307</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.85315158552481</v>
+        <v>6.977105843813376</v>
       </c>
       <c r="P2" t="n">
-        <v>47.68033997548378</v>
+        <v>40.80429423377234</v>
       </c>
       <c r="Q2" t="n">
         <v>79.30166562967011</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>59.99978994537916</v>
+        <v>66.8758356870906</v>
       </c>
       <c r="L4" t="n">
-        <v>53.16942317027382</v>
+        <v>53.44724320024197</v>
       </c>
       <c r="M4" t="n">
-        <v>52.68764873420156</v>
+        <v>45.81160299249012</v>
       </c>
       <c r="N4" t="n">
-        <v>43.66145635451461</v>
+        <v>43.38363632454646</v>
       </c>
       <c r="O4" t="n">
-        <v>61.37159796783205</v>
+        <v>54.49555222612061</v>
       </c>
       <c r="P4" t="n">
-        <v>65.88487562446231</v>
+        <v>72.76092136617375</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,13 +8216,13 @@
         <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>31.46364424492229</v>
+        <v>20.92746127418317</v>
       </c>
       <c r="L5" t="n">
-        <v>39.25882405638561</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>5.466147776647517</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>105.2797725233048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.82399130580728</v>
+        <v>10.82399130580643</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.724572257622214</v>
+        <v>5.724572257621105</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>25.45462128915953</v>
+        <v>25.45462128915902</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.003407784226425</v>
+        <v>3.003407784225743</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>135.2428141930374</v>
+        <v>47.57209396668313</v>
       </c>
       <c r="M10" t="n">
-        <v>44.3424871292213</v>
+        <v>132.0132073555782</v>
       </c>
       <c r="N10" t="n">
-        <v>124.1261657883557</v>
+        <v>124.1261657883573</v>
       </c>
       <c r="O10" t="n">
-        <v>145.4065727529389</v>
+        <v>145.4065727529406</v>
       </c>
       <c r="P10" t="n">
-        <v>28.92082096824466</v>
+        <v>28.92082096824412</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>224.2162592735946</v>
+        <v>185.2780905483389</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>14.17491042396995</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23470,7 +23470,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>128.4296311708961</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.9974140637615</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.70579849362687</v>
+        <v>28.7057984936269</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.5799308037513</v>
+        <v>101.5799308037512</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4564987129906</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>93.54195951114062</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>20.57725428094004</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.84878806682677</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9090740641936</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>115.4027986191915</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.406874616804998e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.389410087206144e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.017941369558685e-12</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.051798896398395e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.472688720445149e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>2.565059276093962e-12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4.497735517361434e-12</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.406874616804998e-12</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1036670.235986162</v>
+        <v>1036670.235986161</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266654.8350185416</v>
+        <v>266654.8350185415</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
-        <v>221648.1143310985</v>
+        <v>221648.1143310986</v>
       </c>
       <c r="F2" t="n">
-        <v>233790.4720782817</v>
+        <v>233790.4720782815</v>
       </c>
       <c r="G2" t="n">
         <v>266838.5752058923</v>
       </c>
       <c r="H2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="I2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="J2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="K2" t="n">
         <v>266838.5752058922</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>266838.5752058921</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>266838.5752058922</v>
       </c>
-      <c r="M2" t="n">
-        <v>266838.5752058917</v>
-      </c>
       <c r="N2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="O2" t="n">
+        <v>266838.5752058922</v>
+      </c>
+      <c r="P2" t="n">
         <v>266838.5752058923</v>
-      </c>
-      <c r="O2" t="n">
-        <v>266838.575205892</v>
-      </c>
-      <c r="P2" t="n">
-        <v>266838.5752058921</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>77054.58817339853</v>
       </c>
       <c r="D3" t="n">
-        <v>111873.0977293465</v>
+        <v>111873.0977293493</v>
       </c>
       <c r="E3" t="n">
-        <v>682915.744590212</v>
+        <v>682915.7445902092</v>
       </c>
       <c r="F3" t="n">
-        <v>94804.48211907659</v>
+        <v>94804.48211907565</v>
       </c>
       <c r="G3" t="n">
-        <v>142564.9280656558</v>
+        <v>142564.9280656569</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.462629815156106e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>1799.076112044377</v>
       </c>
       <c r="K3" t="n">
-        <v>12452.7787490844</v>
+        <v>12452.77874908452</v>
       </c>
       <c r="L3" t="n">
-        <v>45244.05499037099</v>
+        <v>45244.0549903714</v>
       </c>
       <c r="M3" t="n">
-        <v>173767.8592091532</v>
+        <v>173767.8592091526</v>
       </c>
       <c r="N3" t="n">
-        <v>24926.34399050171</v>
+        <v>24926.34399050145</v>
       </c>
       <c r="O3" t="n">
-        <v>31063.99003973156</v>
+        <v>31063.99003973194</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>329057.6628446897</v>
       </c>
       <c r="D4" t="n">
-        <v>294554.5757336029</v>
+        <v>294554.575733602</v>
       </c>
       <c r="E4" t="n">
         <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
-        <v>12262.84361124338</v>
+        <v>12262.84361124349</v>
       </c>
       <c r="G4" t="n">
-        <v>43399.53897605927</v>
+        <v>43399.53897605922</v>
       </c>
       <c r="H4" t="n">
-        <v>43399.53897605924</v>
+        <v>43399.53897605921</v>
       </c>
       <c r="I4" t="n">
+        <v>43399.53897605916</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43399.53897605921</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43399.53897605911</v>
+      </c>
+      <c r="L4" t="n">
         <v>43399.53897605914</v>
       </c>
-      <c r="J4" t="n">
-        <v>43399.53897605912</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43399.53897605912</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>43399.53897605916</v>
+      </c>
+      <c r="N4" t="n">
+        <v>43399.53897605918</v>
+      </c>
+      <c r="O4" t="n">
         <v>43399.53897605921</v>
       </c>
-      <c r="M4" t="n">
-        <v>43399.53897605908</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43399.53897605921</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43399.53897605922</v>
-      </c>
       <c r="P4" t="n">
-        <v>43399.53897605924</v>
+        <v>43399.53897605916</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>45639.02497530233</v>
       </c>
       <c r="D5" t="n">
-        <v>52657.28958697472</v>
+        <v>52657.2895869749</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82304.42556324917</v>
+        <v>82304.42556324907</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215531</v>
@@ -26488,28 +26488,28 @@
         <v>95106.43410215531</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215533</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445836.3223487673</v>
+        <v>-445837.7357348238</v>
       </c>
       <c r="C6" t="n">
         <v>-184912.7007874984</v>
       </c>
       <c r="D6" t="n">
-        <v>-192246.387844032</v>
+        <v>-192246.387844034</v>
       </c>
       <c r="E6" t="n">
-        <v>-547784.1497826475</v>
+        <v>-548131.7687124506</v>
       </c>
       <c r="F6" t="n">
-        <v>44418.72078471251</v>
+        <v>44164.50460680854</v>
       </c>
       <c r="G6" t="n">
-        <v>-14232.32593797806</v>
+        <v>-14232.32593797914</v>
       </c>
       <c r="H6" t="n">
-        <v>128332.6021276777</v>
+        <v>128332.6021276778</v>
       </c>
       <c r="I6" t="n">
         <v>128332.6021276777</v>
       </c>
       <c r="J6" t="n">
-        <v>126533.5260156334</v>
+        <v>126533.5260156333</v>
       </c>
       <c r="K6" t="n">
         <v>115879.8233785933</v>
       </c>
       <c r="L6" t="n">
-        <v>83088.5471373067</v>
+        <v>83088.54713730633</v>
       </c>
       <c r="M6" t="n">
-        <v>-45435.25708147582</v>
+        <v>-45435.25708147489</v>
       </c>
       <c r="N6" t="n">
-        <v>103406.258137176</v>
+        <v>103406.2581371762</v>
       </c>
       <c r="O6" t="n">
-        <v>97268.61208794595</v>
+        <v>97268.61208794574</v>
       </c>
       <c r="P6" t="n">
-        <v>128332.6021276776</v>
+        <v>128332.6021276778</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I2" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K2" t="n">
         <v>31.61020235221379</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="N2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="O2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="P2" t="n">
         <v>31.61020235221389</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>498.8904215224807</v>
+        <v>498.8904215224832</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1172.824334488004</v>
+        <v>1172.824334488003</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26793,13 +26793,13 @@
         <v>55.26115480377223</v>
       </c>
       <c r="D4" t="n">
-        <v>134.1098420688261</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>933.1719584113599</v>
+        <v>933.1719584113586</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221403</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>67.45293530711962</v>
       </c>
       <c r="D3" t="n">
-        <v>102.0304782549127</v>
+        <v>102.0304782549152</v>
       </c>
       <c r="E3" t="n">
-        <v>590.8862790708176</v>
+        <v>590.8862790708151</v>
       </c>
       <c r="F3" t="n">
-        <v>83.04763389470577</v>
+        <v>83.04763389470486</v>
       </c>
       <c r="G3" t="n">
-        <v>105.3355361321192</v>
+        <v>105.3355361321203</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>48.38510906206079</v>
       </c>
       <c r="D4" t="n">
-        <v>78.84868726505393</v>
+        <v>78.84868726505626</v>
       </c>
       <c r="E4" t="n">
-        <v>697.291613333467</v>
+        <v>697.2916133334643</v>
       </c>
       <c r="F4" t="n">
-        <v>101.7705030090668</v>
+        <v>101.7705030090658</v>
       </c>
       <c r="G4" t="n">
-        <v>129.0831537775933</v>
+        <v>129.0831537775947</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>6.87604574171155</v>
       </c>
       <c r="K4" t="n">
-        <v>48.38510906206056</v>
+        <v>48.38510906206102</v>
       </c>
       <c r="L4" t="n">
-        <v>78.84868726505393</v>
+        <v>78.84868726505626</v>
       </c>
       <c r="M4" t="n">
-        <v>697.291613333467</v>
+        <v>697.2916133334643</v>
       </c>
       <c r="N4" t="n">
-        <v>101.7705030090668</v>
+        <v>101.7705030090656</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0831537775931</v>
+        <v>129.0831537775947</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>48.38510906206079</v>
       </c>
       <c r="L4" t="n">
-        <v>78.84868726505393</v>
+        <v>78.84868726505626</v>
       </c>
       <c r="M4" t="n">
-        <v>697.291613333467</v>
+        <v>697.2916133334643</v>
       </c>
       <c r="N4" t="n">
-        <v>101.7705030090668</v>
+        <v>101.7705030090658</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0831537775933</v>
+        <v>129.0831537775947</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>347.8069958789715</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27397,7 @@
         <v>325.9128341950639</v>
       </c>
       <c r="I2" t="n">
-        <v>159.4227692713298</v>
+        <v>152.5467235296183</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>66.68474421734859</v>
       </c>
       <c r="S2" t="n">
-        <v>172.7873180692124</v>
+        <v>178.8437391585118</v>
       </c>
       <c r="T2" t="n">
         <v>217.2989483486666</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2397129655779</v>
+        <v>245.1832918762784</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>151.5886593661015</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>129.758935593056</v>
+        <v>136.6349813347674</v>
       </c>
       <c r="H3" t="n">
         <v>105.3924797881105</v>
       </c>
       <c r="I3" t="n">
-        <v>65.00186858264601</v>
+        <v>58.12582284093458</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.16646052351003</v>
+        <v>49.29041478179859</v>
       </c>
       <c r="S3" t="n">
         <v>158.5224288518331</v>
@@ -27512,7 +27512,7 @@
         <v>197.3088320880702</v>
       </c>
       <c r="U3" t="n">
-        <v>219.0187221400237</v>
+        <v>219.8383467924357</v>
       </c>
       <c r="V3" t="n">
         <v>225.9245414077138</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>173.7755590926379</v>
       </c>
       <c r="C4" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>130.7108491472983</v>
       </c>
       <c r="J4" t="n">
-        <v>51.36248665915791</v>
+        <v>44.48644091744647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.42158504966668</v>
+        <v>29.54553930795525</v>
       </c>
       <c r="R4" t="n">
         <v>150.5844231579502</v>
@@ -27594,13 +27594,13 @@
         <v>286.2866286671833</v>
       </c>
       <c r="V4" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>219.6532342997377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>310.0117369672353</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.6148909379392</v>
+        <v>358.2020205905489</v>
       </c>
       <c r="G5" t="n">
         <v>358.4461658540058</v>
@@ -27634,7 +27634,7 @@
         <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>148.9685811771479</v>
+        <v>93.70742637337571</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>49.65101377519441</v>
       </c>
       <c r="S5" t="n">
-        <v>123.9904827980588</v>
+        <v>117.4033531454492</v>
       </c>
       <c r="T5" t="n">
         <v>216.1119122710508</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>89.80805758961165</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>81.22873908524025</v>
       </c>
       <c r="H6" t="n">
-        <v>48.73008570559985</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>60.0065332792414</v>
+        <v>4.745378475469174</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100.5663383780076</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
-        <v>148.0500027147638</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8852226550407</v>
+        <v>224.3695094216562</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>150.5118303997052</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>93.35431821444013</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>91.17280784279694</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.32495696754156</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>89.85405166517774</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S7" t="n">
         <v>211.5447863772357</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8878160949084</v>
+        <v>169.6266612911362</v>
       </c>
       <c r="U7" t="n">
         <v>286.2799939522351</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>196.8764885200558</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>251.5868005003603</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>272.7662036728853</v>
+        <v>287.7976499742084</v>
       </c>
       <c r="G8" t="n">
-        <v>319.0586970646395</v>
+        <v>279.1873058120453</v>
       </c>
       <c r="H8" t="n">
-        <v>184.8252152050632</v>
+        <v>318.9350572738892</v>
       </c>
       <c r="I8" t="n">
-        <v>133.1553951955499</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>23.88549807798711</v>
       </c>
       <c r="S8" t="n">
-        <v>163.3176957955176</v>
+        <v>163.3176957955174</v>
       </c>
       <c r="T8" t="n">
         <v>214.3163809401528</v>
       </c>
       <c r="U8" t="n">
-        <v>117.0753636682695</v>
+        <v>117.0753636682671</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>13.33522349581261</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>10.95937032455774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2704321055962</v>
+        <v>71.89127573954859</v>
       </c>
       <c r="H9" t="n">
-        <v>17.28018312449551</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>52.45050257828796</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,16 +27980,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>17.64124474116541</v>
+        <v>151.7510868099914</v>
       </c>
       <c r="T9" t="n">
         <v>195.8394428704899</v>
       </c>
       <c r="U9" t="n">
-        <v>225.870784379816</v>
+        <v>91.7609423109875</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>98.6907450805968</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>14.50563094938389</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>154.2285687000791</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>128.395892724039</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.732532507520574</v>
+        <v>2.732532507518044</v>
       </c>
       <c r="S10" t="n">
-        <v>208.3383531507658</v>
+        <v>208.3383531507657</v>
       </c>
       <c r="T10" t="n">
-        <v>140.8481116242057</v>
+        <v>224.1016796231083</v>
       </c>
       <c r="U10" t="n">
         <v>286.2699581674887</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>91.59981332021101</v>
+        <v>148.1700367349189</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>84.47481128326632</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605491</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221238</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605488</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605488</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221379</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605491</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221514</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221381</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605491</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221694</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221374</v>
+        <v>31.61020235221379</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605491</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605491</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221605</v>
       </c>
       <c r="O43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605491</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
   </sheetData>
@@ -31142,10 +31142,10 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>147.8696104706878</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P3" t="n">
-        <v>135.2992670998302</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.44397697812161</v>
@@ -31376,13 +31376,13 @@
         <v>197.3951887257905</v>
       </c>
       <c r="N6" t="n">
-        <v>186.6028668871055</v>
+        <v>163.8106038079154</v>
       </c>
       <c r="O6" t="n">
         <v>197.8573992482167</v>
       </c>
       <c r="P6" t="n">
-        <v>140.21234267537</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.005589634261228</v>
+        <v>2.005589634261237</v>
       </c>
       <c r="H8" t="n">
-        <v>20.5397448418778</v>
+        <v>20.5397448418779</v>
       </c>
       <c r="I8" t="n">
-        <v>77.32049437485605</v>
+        <v>77.32049437485644</v>
       </c>
       <c r="J8" t="n">
-        <v>170.221913220879</v>
+        <v>170.2219132208799</v>
       </c>
       <c r="K8" t="n">
-        <v>255.1185224391568</v>
+        <v>255.1185224391581</v>
       </c>
       <c r="L8" t="n">
-        <v>316.4970862086789</v>
+        <v>316.4970862086805</v>
       </c>
       <c r="M8" t="n">
-        <v>352.163990866972</v>
+        <v>352.1639908669738</v>
       </c>
       <c r="N8" t="n">
-        <v>357.8623724153168</v>
+        <v>357.8623724153185</v>
       </c>
       <c r="O8" t="n">
-        <v>337.9192904896316</v>
+        <v>337.9192904896333</v>
       </c>
       <c r="P8" t="n">
-        <v>288.4062963938076</v>
+        <v>288.406296393809</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.5811176168273</v>
+        <v>216.5811176168284</v>
       </c>
       <c r="R8" t="n">
-        <v>125.9836198631619</v>
+        <v>125.9836198631626</v>
       </c>
       <c r="S8" t="n">
-        <v>45.70237379072777</v>
+        <v>45.702373790728</v>
       </c>
       <c r="T8" t="n">
-        <v>8.779468623978527</v>
+        <v>8.779468623978572</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1604471707408982</v>
+        <v>0.160447170740899</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.073085057614392</v>
+        <v>1.073085057614398</v>
       </c>
       <c r="H9" t="n">
-        <v>10.36374253011795</v>
+        <v>10.363742530118</v>
       </c>
       <c r="I9" t="n">
-        <v>36.94613027312712</v>
+        <v>36.9461302731273</v>
       </c>
       <c r="J9" t="n">
-        <v>101.3830053775072</v>
+        <v>101.3830053775077</v>
       </c>
       <c r="K9" t="n">
-        <v>173.2797042376715</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>186.6100534420643</v>
+        <v>222.04831870538</v>
       </c>
       <c r="M9" t="n">
-        <v>271.895279729752</v>
+        <v>271.8952797297533</v>
       </c>
       <c r="N9" t="n">
-        <v>265.4515541521595</v>
+        <v>265.4515541521617</v>
       </c>
       <c r="O9" t="n">
-        <v>255.3142329842454</v>
+        <v>255.3142329842467</v>
       </c>
       <c r="P9" t="n">
-        <v>204.9121808702431</v>
+        <v>204.9121808702441</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9783663017951</v>
+        <v>136.9783663017958</v>
       </c>
       <c r="R9" t="n">
-        <v>66.62540384030414</v>
+        <v>66.62540384030449</v>
       </c>
       <c r="S9" t="n">
-        <v>19.93208429384627</v>
+        <v>19.93208429384637</v>
       </c>
       <c r="T9" t="n">
-        <v>4.325285824331695</v>
+        <v>4.325285824331716</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07059770115884165</v>
+        <v>0.07059770115884199</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8996384650405389</v>
+        <v>0.8996384650405435</v>
       </c>
       <c r="H10" t="n">
-        <v>7.998603807360434</v>
+        <v>7.998603807360474</v>
       </c>
       <c r="I10" t="n">
-        <v>27.05458220321912</v>
+        <v>27.05458220321926</v>
       </c>
       <c r="J10" t="n">
-        <v>63.6044394783661</v>
+        <v>63.60443947836642</v>
       </c>
       <c r="K10" t="n">
-        <v>104.5216325747099</v>
+        <v>104.5216325747104</v>
       </c>
       <c r="L10" t="n">
-        <v>133.7517041570271</v>
+        <v>133.7517041570277</v>
       </c>
       <c r="M10" t="n">
-        <v>141.0224186608546</v>
+        <v>141.0224186608554</v>
       </c>
       <c r="N10" t="n">
-        <v>137.6692207457037</v>
+        <v>137.6692207457043</v>
       </c>
       <c r="O10" t="n">
-        <v>127.15980776773</v>
+        <v>127.1598077677307</v>
       </c>
       <c r="P10" t="n">
-        <v>108.807183080903</v>
+        <v>108.8071830809035</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.33245364989459</v>
+        <v>75.33245364989496</v>
       </c>
       <c r="R10" t="n">
-        <v>40.45101680082276</v>
+        <v>40.45101680082297</v>
       </c>
       <c r="S10" t="n">
-        <v>15.67824488620648</v>
+        <v>15.67824488620656</v>
       </c>
       <c r="T10" t="n">
-        <v>3.843909805173211</v>
+        <v>3.84390980517323</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04907118900221127</v>
+        <v>0.04907118900221152</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.714871696434184</v>
+        <v>4.71487169643418</v>
       </c>
       <c r="H14" t="n">
-        <v>48.2861797611066</v>
+        <v>48.28617976110656</v>
       </c>
       <c r="I14" t="n">
-        <v>181.770091076779</v>
+        <v>181.7700910767789</v>
       </c>
       <c r="J14" t="n">
-        <v>400.1688416452312</v>
+        <v>400.1688416452308</v>
       </c>
       <c r="K14" t="n">
-        <v>599.7493605552903</v>
+        <v>599.7493605552899</v>
       </c>
       <c r="L14" t="n">
-        <v>744.0421152350381</v>
+        <v>744.0421152350375</v>
       </c>
       <c r="M14" t="n">
-        <v>827.8902147664994</v>
+        <v>827.8902147664988</v>
       </c>
       <c r="N14" t="n">
-        <v>841.2863439739931</v>
+        <v>841.2863439739925</v>
       </c>
       <c r="O14" t="n">
-        <v>794.4028385425756</v>
+        <v>794.4028385425751</v>
       </c>
       <c r="P14" t="n">
-        <v>678.0044435368567</v>
+        <v>678.0044435368561</v>
       </c>
       <c r="Q14" t="n">
-        <v>509.1531009083073</v>
+        <v>509.1531009083069</v>
       </c>
       <c r="R14" t="n">
-        <v>296.170559201134</v>
+        <v>296.1705592011338</v>
       </c>
       <c r="S14" t="n">
-        <v>107.4401387824941</v>
+        <v>107.440138782494</v>
       </c>
       <c r="T14" t="n">
-        <v>20.63935085114065</v>
+        <v>20.63935085114063</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3771897357147346</v>
+        <v>0.3771897357147343</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.522678757200612</v>
+        <v>2.522678757200611</v>
       </c>
       <c r="H15" t="n">
-        <v>24.36376589191118</v>
+        <v>24.36376589191116</v>
       </c>
       <c r="I15" t="n">
-        <v>86.85538703519654</v>
+        <v>86.85538703519647</v>
       </c>
       <c r="J15" t="n">
-        <v>132.2378272583065</v>
+        <v>238.3378206528876</v>
       </c>
       <c r="K15" t="n">
-        <v>407.3572973853288</v>
+        <v>407.3572973853285</v>
       </c>
       <c r="L15" t="n">
-        <v>547.7421573474401</v>
+        <v>547.7421573474396</v>
       </c>
       <c r="M15" t="n">
-        <v>639.1892622959622</v>
+        <v>639.1892622959616</v>
       </c>
       <c r="N15" t="n">
-        <v>656.106700101926</v>
+        <v>656.1067001019255</v>
       </c>
       <c r="O15" t="n">
-        <v>600.2094497450072</v>
+        <v>301.1256333631395</v>
       </c>
       <c r="P15" t="n">
-        <v>481.7209988201766</v>
+        <v>481.7209988201763</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>322.0177304805551</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>156.6273705567187</v>
       </c>
       <c r="S15" t="n">
-        <v>46.85765147694995</v>
+        <v>46.8576514769499</v>
       </c>
       <c r="T15" t="n">
-        <v>10.16816569240071</v>
+        <v>10.1681656924007</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1659657077105667</v>
+        <v>0.1659657077105666</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.114929127765253</v>
+        <v>2.114929127765251</v>
       </c>
       <c r="H16" t="n">
-        <v>18.80364260867654</v>
+        <v>18.80364260867652</v>
       </c>
       <c r="I16" t="n">
-        <v>63.60168686043145</v>
+        <v>63.6016868604314</v>
       </c>
       <c r="J16" t="n">
-        <v>149.5254893330034</v>
+        <v>149.5254893330033</v>
       </c>
       <c r="K16" t="n">
-        <v>245.7163113894539</v>
+        <v>245.7163113894537</v>
       </c>
       <c r="L16" t="n">
-        <v>314.4322814133905</v>
+        <v>314.4322814133902</v>
       </c>
       <c r="M16" t="n">
-        <v>331.5247540914205</v>
+        <v>331.5247540914202</v>
       </c>
       <c r="N16" t="n">
-        <v>323.6418364333866</v>
+        <v>323.6418364333863</v>
       </c>
       <c r="O16" t="n">
-        <v>298.9356188954015</v>
+        <v>298.9356188954013</v>
       </c>
       <c r="P16" t="n">
-        <v>255.7910646889901</v>
+        <v>255.7910646889899</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.0964745076886</v>
+        <v>177.0964745076885</v>
       </c>
       <c r="R16" t="n">
-        <v>95.09490423569945</v>
+        <v>95.09490423569937</v>
       </c>
       <c r="S16" t="n">
-        <v>36.85744670841808</v>
+        <v>36.85744670841805</v>
       </c>
       <c r="T16" t="n">
-        <v>9.036515364087897</v>
+        <v>9.03651536408789</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1153597706053776</v>
+        <v>0.1153597706053775</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I17" t="n">
         <v>198.095511204351</v>
@@ -32236,28 +32236,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171638</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O17" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829628</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110797</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J18" t="n">
         <v>259.7437903115857</v>
@@ -32318,31 +32318,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>460.5810023082624</v>
+        <v>224.6083558013927</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879671</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160632</v>
+        <v>715.0339827160633</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578285</v>
+        <v>654.1164009578287</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877215</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T18" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U18" t="n">
         <v>0.1808716798047345</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838147</v>
@@ -32400,16 +32400,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636386</v>
@@ -32418,10 +32418,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32549,10 +32549,10 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115857</v>
+        <v>208.2975609288262</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L21" t="n">
         <v>596.9368339155585</v>
@@ -32567,10 +32567,10 @@
         <v>654.1164009578285</v>
       </c>
       <c r="P21" t="n">
-        <v>177.6727308988279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171346</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879732</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I23" t="n">
         <v>198.095511204351</v>
@@ -32710,28 +32710,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K23" t="n">
-        <v>653.614989517164</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869755</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654302</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117595</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565681</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P23" t="n">
-        <v>738.898440582963</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972014</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581562</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110797</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031964</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781105</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J24" t="n">
         <v>259.7437903115857</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.6234851251503</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879672</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160633</v>
+        <v>573.1387203886723</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578287</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892353</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q24" t="n">
         <v>350.9392912691328</v>
@@ -32813,10 +32813,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486999</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T24" t="n">
-        <v>11.08140491603673</v>
+        <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
         <v>0.1808716798047345</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216616</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092593</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051425</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838147</v>
@@ -32874,16 +32874,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754555</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696484</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246178</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381986</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636386</v>
@@ -32892,10 +32892,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227501</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925538</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171346</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.62293376879732</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
@@ -32947,28 +32947,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K26" t="n">
-        <v>653.614989517164</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869755</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654302</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117595</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565681</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P26" t="n">
-        <v>738.898440582963</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972014</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R26" t="n">
-        <v>322.7706933581562</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110797</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.749249533031964</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781105</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155586</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879672</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160633</v>
+        <v>573.1387203886718</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578287</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>521.5364117268575</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.06610426486999</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T27" t="n">
-        <v>11.08140491603673</v>
+        <v>11.08140491603672</v>
       </c>
       <c r="U27" t="n">
         <v>0.1808716798047345</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.304878455216616</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H28" t="n">
-        <v>20.49246481092593</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051425</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33111,16 +33111,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754555</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696484</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246178</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P28" t="n">
-        <v>278.7645724381986</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q28" t="n">
         <v>193.0021404636386</v>
@@ -33129,10 +33129,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227501</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925538</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33263,10 +33263,10 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L30" t="n">
-        <v>224.6083558013938</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879671</v>
@@ -33275,16 +33275,16 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>524.9860796892352</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691328</v>
+        <v>209.0440289417413</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33512,13 +33512,13 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O33" t="n">
-        <v>602.670171575069</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>209.0440289417413</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J36" t="n">
-        <v>135.7763377130016</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K36" t="n">
         <v>443.9435090247272</v>
@@ -33743,22 +33743,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>524.9860796892352</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691328</v>
+        <v>209.0440289417413</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J39" t="n">
-        <v>135.7763377130016</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K39" t="n">
         <v>443.9435090247272</v>
@@ -33980,22 +33980,22 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>524.9860796892352</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691328</v>
+        <v>209.0440289417413</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34144,7 +34144,7 @@
         <v>916.8452708117594</v>
       </c>
       <c r="O41" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565674</v>
       </c>
       <c r="P41" t="n">
         <v>738.8984405829628</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L42" t="n">
-        <v>593.4871659531814</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879671</v>
@@ -34223,7 +34223,7 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578285</v>
+        <v>211.6584993001642</v>
       </c>
       <c r="P42" t="n">
         <v>524.9860796892352</v>
@@ -34457,10 +34457,10 @@
         <v>696.5971294879671</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160632</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O45" t="n">
-        <v>211.6584993001642</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P45" t="n">
         <v>524.9860796892352</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.417872862493069</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
-        <v>2.180352849250227</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>5.273366026243323</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P3" t="n">
-        <v>1.324859685499973</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>14.31680026897454</v>
+        <v>3.780617298235428</v>
       </c>
       <c r="L5" t="n">
-        <v>55.26115480377223</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
-        <v>55.26115480377223</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N5" t="n">
         <v>55.26115480377223</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>55.26115480377223</v>
       </c>
       <c r="N6" t="n">
-        <v>55.26115480377223</v>
+        <v>32.46889172458208</v>
       </c>
       <c r="O6" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="P6" t="n">
-        <v>6.237935261039771</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.02867139417629</v>
+        <v>35.02867139417756</v>
       </c>
       <c r="L8" t="n">
-        <v>80.73067123869168</v>
+        <v>80.73067123869328</v>
       </c>
       <c r="M8" t="n">
-        <v>121.8177576396993</v>
+        <v>121.8177576397011</v>
       </c>
       <c r="N8" t="n">
-        <v>128.4493088187259</v>
+        <v>128.4493088187276</v>
       </c>
       <c r="O8" t="n">
-        <v>107.8210790679449</v>
+        <v>107.8210790679466</v>
       </c>
       <c r="P8" t="n">
-        <v>57.17330063853802</v>
+        <v>57.17330063853944</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>35.43826526331247</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>48.05567366219012</v>
+        <v>83.49393892550587</v>
       </c>
       <c r="M9" t="n">
-        <v>129.7612458077336</v>
+        <v>129.761245807735</v>
       </c>
       <c r="N9" t="n">
-        <v>134.1098420688261</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="O9" t="n">
-        <v>112.717988539801</v>
+        <v>112.7179885398022</v>
       </c>
       <c r="P9" t="n">
-        <v>70.93777345591286</v>
+        <v>70.93777345591388</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>82.252140748827</v>
+        <v>82.25214074882753</v>
       </c>
       <c r="L10" t="n">
-        <v>134.1098420688261</v>
+        <v>46.43912184247256</v>
       </c>
       <c r="M10" t="n">
-        <v>46.43912184247088</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="N10" t="n">
-        <v>134.1098420688261</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="O10" t="n">
-        <v>134.1098420688261</v>
+        <v>134.1098420688285</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.1229371185449</v>
+        <v>219.1229371185445</v>
       </c>
       <c r="K14" t="n">
-        <v>379.6595095103098</v>
+        <v>379.6595095103093</v>
       </c>
       <c r="L14" t="n">
-        <v>508.2757002650508</v>
+        <v>508.2757002650503</v>
       </c>
       <c r="M14" t="n">
-        <v>597.5439815392267</v>
+        <v>597.5439815392261</v>
       </c>
       <c r="N14" t="n">
-        <v>611.8732803774021</v>
+        <v>611.8732803774017</v>
       </c>
       <c r="O14" t="n">
-        <v>564.3046271208889</v>
+        <v>564.3046271208883</v>
       </c>
       <c r="P14" t="n">
-        <v>446.7714477815871</v>
+        <v>446.7714477815866</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.8474110338578</v>
+        <v>286.8474110338574</v>
       </c>
       <c r="R14" t="n">
-        <v>80.58502138700192</v>
+        <v>80.58502138700169</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5.400200591639813</v>
+        <v>111.5001939862209</v>
       </c>
       <c r="K15" t="n">
-        <v>269.5158584109698</v>
+        <v>269.5158584109695</v>
       </c>
       <c r="L15" t="n">
-        <v>409.1877775675659</v>
+        <v>409.1877775675654</v>
       </c>
       <c r="M15" t="n">
-        <v>497.0552283739439</v>
+        <v>497.0552283739433</v>
       </c>
       <c r="N15" t="n">
-        <v>524.7649880185927</v>
+        <v>524.7649880185922</v>
       </c>
       <c r="O15" t="n">
-        <v>457.6132053005628</v>
+        <v>158.5293889186951</v>
       </c>
       <c r="P15" t="n">
-        <v>347.7465914058464</v>
+        <v>347.7465914058461</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>182.0359563945336</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.94786659275474</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.1663092163306</v>
+        <v>56.16630921633059</v>
       </c>
       <c r="K16" t="n">
         <v>223.446819563571</v>
       </c>
       <c r="L16" t="n">
-        <v>342.0223066737067</v>
+        <v>342.0223066737065</v>
       </c>
       <c r="M16" t="n">
-        <v>371.1086310532611</v>
+        <v>371.1086310532609</v>
       </c>
       <c r="N16" t="n">
-        <v>367.7740088126152</v>
+        <v>367.774008812615</v>
       </c>
       <c r="O16" t="n">
-        <v>323.5207468094412</v>
+        <v>323.5207468094411</v>
       </c>
       <c r="P16" t="n">
-        <v>253.0696239538836</v>
+        <v>253.0696239538835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.93443125599423</v>
+        <v>90.93443125599418</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R17" t="n">
         <v>107.185155544024</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>322.0266225283882</v>
+        <v>86.05397602151849</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327299</v>
+        <v>583.69227063273</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133841</v>
+        <v>511.5201565133842</v>
       </c>
       <c r="P18" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831113</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375752</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895099</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908713</v>
@@ -36060,7 +36060,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.906163644919</v>
+        <v>81.45993426215952</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L21" t="n">
         <v>458.3824541356843</v>
@@ -36215,10 +36215,10 @@
         <v>511.5201565133841</v>
       </c>
       <c r="P21" t="n">
-        <v>43.69832348449765</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414962</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895099</v>
@@ -36297,7 +36297,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721834</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169883</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381575</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151674</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348814</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276934</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227519</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R23" t="n">
         <v>107.185155544024</v>
@@ -36437,25 +36437,25 @@
         <v>132.906163644919</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L24" t="n">
-        <v>111.0691053452761</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N24" t="n">
-        <v>583.69227063273</v>
+        <v>441.7970083053389</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133842</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749051</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831113</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36528,7 +36528,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36595,25 +36595,25 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721834</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169883</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381575</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N26" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348814</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276934</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227519</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R26" t="n">
         <v>107.185155544024</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356844</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N27" t="n">
-        <v>583.69227063273</v>
+        <v>441.7970083053385</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133842</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>387.5620043125272</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>132.906163644919</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L30" t="n">
-        <v>86.05397602151957</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659488</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133841</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>391.011672274905</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
@@ -37160,13 +37160,13 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O33" t="n">
-        <v>460.0739271306246</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908725</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.938711046334873</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K36" t="n">
         <v>306.1020700503682</v>
@@ -37391,22 +37391,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133841</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>391.011672274905</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895097</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553057</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641579</v>
+        <v>138.4502995641612</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.938711046334873</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K39" t="n">
         <v>306.1020700503682</v>
@@ -37628,22 +37628,22 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133841</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>391.011672274905</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,19 +37704,19 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817353</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q40" t="n">
         <v>138.4502995641581</v>
@@ -37792,7 +37792,7 @@
         <v>687.4322072151685</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348807</v>
       </c>
       <c r="P41" t="n">
         <v>507.6654448276933</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L42" t="n">
-        <v>454.9327861733072</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659488</v>
@@ -37871,7 +37871,7 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133841</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="P42" t="n">
         <v>391.011672274905</v>
@@ -37938,7 +37938,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -37947,13 +37947,13 @@
         <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010929</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116832</v>
       </c>
       <c r="K44" t="n">
         <v>433.5251384721833</v>
@@ -38105,10 +38105,10 @@
         <v>554.4630955659488</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327299</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O45" t="n">
-        <v>69.0622548557198</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P45" t="n">
         <v>391.011672274905</v>
